--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7725,6 +7725,98 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45206.02083333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:28</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:28</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:28</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/general-caballero-jlm-cerro-porteno/jaEqMHU8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7817,6 +7817,190 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45206.95833333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>02/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>02/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>02/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guairena-fc-libertad-asuncion/bPDmLypF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45207.0625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/nacional-asuncion-olimpia-asuncion/xGCiKeaL/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8001,6 +8001,190 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45207.95833333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:55</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/resistencia-sportivo-trinidense/Kv2dJFER/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45208.0625</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guarani-tacuary/d0gOEZMr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8185,6 +8185,98 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45209.02083333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>02/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:21</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>02/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:26</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>02/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:21</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-ameliano-sp-luqueno/jNhSDgxk/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8277,6 +8277,190 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45217.95833333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:25</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:25</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:25</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/nacional-asuncion-guarani/WGjeHSrs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45218.0625</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/tacuary-guairena-fc/jJxRYfEE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8461,6 +8461,98 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45219.02083333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:16</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:22</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:22</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sp-luqueno-general-caballero-jlm/vqZMZza8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,98 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45220.02083333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>13/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>13/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:29</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>13/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:29</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-sportivo-ameliano/UDiWCDie/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8645,6 +8645,190 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45220.95833333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:53</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:53</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:53</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/olimpia-asuncion-sportivo-trinidense/QuouBiM7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45221.0625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>15/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>15/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>15/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/cerro-porteno-resistencia/nknyCX61/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8829,6 +8829,190 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45221.95833333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guairena-fc-nacional-asuncion/dYpuxxPQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45222.95833333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:54</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/general-caballero-jlm-libertad-asuncion/2FN7XeXs/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9013,6 +9013,98 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45223.0625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:23</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-ameliano-tacuary/00tBWFnl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9105,6 +9105,190 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45223.95833333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:55</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:50</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:50</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-cerro-porteno/fNuFVZ1f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45224.0625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>25/10/2023 00:16</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>25/10/2023 01:07</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>25/10/2023 00:16</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guarani-olimpia-asuncion/YDvJUgH0/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9289,6 +9289,98 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45225.02083333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:00</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:00</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:00</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/resistencia-sp-luqueno/jkZNTDW6/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9381,6 +9381,558 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45227.02083333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:21</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:27</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:27</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/tacuary-general-caballero-jlm/UuYRSXoD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.95833333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:56</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:53</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/nacional-asuncion-sportivo-ameliano/rqM9iHOD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45228.0625</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>25/10/2023 01:48</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:25</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>25/10/2023 01:48</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:25</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>25/10/2023 01:48</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:25</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guarani-guairena-fc/dnQDjyvK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45228.875</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>25/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>25/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>25/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/olimpia-asuncion-cerro-porteno/vBFIkegQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45229.91666666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:52</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sp-luqueno-sportivo-trinidense/tK1poF1s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45230.02083333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:20</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:20</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:20</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-resistencia/lp1lpZGm/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9933,6 +9933,190 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45231.91666666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>01/11/2023 21:50</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>01/11/2023 21:50</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>01/11/2023 21:50</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-ameliano-guarani/YFqsnGDD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45232.02083333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:04</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/general-caballero-jlm-nacional-asuncion/zLNPAajE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10117,6 +10117,190 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45232.91666666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/resistencia-tacuary/EBMT9J5K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45233.02083333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:24</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:27</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-libertad-asuncion/roRX8wLQ/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10301,6 +10301,190 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45233.91666666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guairena-fc-olimpia-asuncion/pfDa4cTs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45234.02083333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>30/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:26</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>30/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:26</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>30/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:20</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/cerro-porteno-sp-luqueno/SI243Hrl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10485,6 +10485,190 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45235.91666666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/tacuary-sportivo-trinidense/tM682ybf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45236.02083333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:29</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:29</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:29</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guarani-general-caballero-jlm/zq6C1eD0/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10669,6 +10669,190 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45236.91666666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:53</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:53</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-cerro-porteno/EZ4G0FS6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45237.02083333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>5</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/nacional-asuncion-resistencia/foMDaZsD/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10853,6 +10853,190 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45237.91666666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:56</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guairena-fc-sportivo-ameliano/YyLHbgcJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45238.02083333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>08/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>08/11/2023 00:29</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>08/11/2023 00:29</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/olimpia-asuncion-sp-luqueno/nu9aNxzK/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11037,6 +11037,190 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.9375</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 22:26</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 22:26</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>11/11/2023 22:26</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-ameliano-olimpia-asuncion/UPViu3ZR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45242.02083333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:23</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:23</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:23</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/general-caballero-jlm-guairena-fc/MHNJzNsq/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11221,6 +11221,190 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45242.95833333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/cerro-porteno-tacuary/08MNZtck/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.95833333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sp-luqueno-libertad-asuncion/rXBSY0Ce/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11405,6 +11405,98 @@
         </is>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45243.91666666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>07/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>13/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>07/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>13/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>07/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>13/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/resistencia-guarani/f7FWXKR1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11497,6 +11497,98 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45244.02083333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>07/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>14/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>07/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>14/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>07/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>14/11/2023 00:21</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-nacional-asuncion/8A3Ed442/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11589,6 +11589,190 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45253.97916666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:22</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:22</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:22</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guairena-fc-resistencia/MZ0rrU1l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45253.97916666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/tacuary-sp-luqueno/rq2vqAnr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11773,6 +11773,282 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45254.97916666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:21</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:23</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:21</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-ameliano-general-caballero-jlm/j95nslHf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45255.97916666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:22</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:22</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:22</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/guarani-sportivo-trinidense/Ua4jt8W0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45255.97916666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/olimpia-asuncion-libertad-asuncion/COgeuSo7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12049,6 +12049,98 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45256.95833333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:04</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:04</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:04</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:04</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>25/11/2023 10:44</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>25/11/2023 10:44</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/nacional-asuncion-cerro-porteno/Obcavn1D/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12141,6 +12141,190 @@
         </is>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45259.97916666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>29/11/2023 23:09</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>29/11/2023 23:23</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>29/11/2023 23:08</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-tacuary/IJ5RsL75/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45259.97916666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>7</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Guairena</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>29/11/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>29/11/2023 23:20</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>29/11/2023 23:27</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-guairena-fc/4G1Nr1ha/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Guairena</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>29/11/2023 23:09</t>
+          <t>29/11/2023 23:27</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>5.68</v>
+        <v>3.49</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.26</v>
+        <v>3.32</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>29/11/2023 23:23</t>
+          <t>29/11/2023 23:20</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>9.890000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.11</v>
+        <v>2.73</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>29/11/2023 23:08</t>
+          <t>29/11/2023 23:27</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-tacuary/IJ5RsL75/</t>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-guairena-fc/4G1Nr1ha/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Guairena</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.74</v>
+        <v>1.64</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>29/11/2023 23:27</t>
+          <t>29/11/2023 23:09</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.49</v>
+        <v>5.68</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.32</v>
+        <v>4.26</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>29/11/2023 23:20</t>
+          <t>29/11/2023 23:23</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.07</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,108 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.73</v>
+        <v>5.11</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>29/11/2023 23:27</t>
+          <t>29/11/2023 23:08</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-guairena-fc/4G1Nr1ha/</t>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-tacuary/IJ5RsL75/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45261.02083333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:29</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:29</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:27</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/resistencia-sportivo-ameliano/ER8Ao38t/</t>
         </is>
       </c>
     </row>

--- a/2023/paraguay_primera-division_2023.xlsx
+++ b/2023/paraguay_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Guairena</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.74</v>
+        <v>1.64</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>29/11/2023 23:27</t>
+          <t>29/11/2023 23:09</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.49</v>
+        <v>5.68</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.32</v>
+        <v>4.26</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>29/11/2023 23:20</t>
+          <t>29/11/2023 23:23</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.07</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.73</v>
+        <v>5.11</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>29/11/2023 23:27</t>
+          <t>29/11/2023 23:08</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-guairena-fc/4G1Nr1ha/</t>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-tacuary/IJ5RsL75/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Guairena</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>29/11/2023 23:09</t>
+          <t>29/11/2023 23:27</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>5.68</v>
+        <v>3.49</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.26</v>
+        <v>3.32</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>29/11/2023 23:23</t>
+          <t>29/11/2023 23:20</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>9.890000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.11</v>
+        <v>2.73</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>29/11/2023 23:08</t>
+          <t>29/11/2023 23:27</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/paraguay/primera-division/libertad-asuncion-tacuary/IJ5RsL75/</t>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sportivo-trinidense-guairena-fc/4G1Nr1ha/</t>
         </is>
       </c>
     </row>
@@ -12414,6 +12414,282 @@
       <c r="V130" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/paraguay/primera-division/resistencia-sportivo-ameliano/ER8Ao38t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45261.97916666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>4</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:28</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/cerro-porteno-guarani/Ag2Jqswg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45261.97916666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:27</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/general-caballero-jlm-olimpia-asuncion/x2os3VwE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>paraguay</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45261.97916666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:26</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:26</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/paraguay/primera-division/sp-luqueno-nacional-asuncion/W23FpNNn/</t>
         </is>
       </c>
     </row>
